--- a/currentbuild/StructureDefinition-lmdi-legemiddeladministrasjon.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddeladministrasjon.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-legemiddeladministrasjon</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-legemiddeladministrasjon</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>HL7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>HL7 Norge (https://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -540,7 +540,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-medicationadministration-status</t>
+    <t>http://hl7.no/fhir/ig/mal/ValueSet/lmdi-medicationadministration-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1767,7 +1767,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.82421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
